--- a/suggestion.xlsx
+++ b/suggestion.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A6EWOR61</t>
+          <t>MVFS9I54</t>
         </is>
       </c>
     </row>
@@ -476,12 +476,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T33</t>
+          <t>T23</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>OCH1RBHA</t>
+          <t>PMX992L4</t>
         </is>
       </c>
     </row>
@@ -493,12 +493,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T41</t>
+          <t>T33</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0OXJSUX2</t>
+          <t>NLJ9STKT</t>
         </is>
       </c>
     </row>
@@ -510,12 +510,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T52</t>
+          <t>T42</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JFQV58F5</t>
+          <t>EVX6P7OF</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>392XPSJM</t>
+          <t>WQQFVZGY</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>POK09MQD</t>
+          <t>K2HFVC3G</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>T07</t>
+          <t>T08</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RX9PCC3H</t>
+          <t>CMYH2NKE</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RZ4O7MLX</t>
+          <t>FEWONENR</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>T43</t>
+          <t>T17</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CMAGOB2P</t>
+          <t>D5FZFMLE</t>
         </is>
       </c>
     </row>
@@ -612,12 +612,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>T58</t>
+          <t>T43</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>G9E7V5UI</t>
+          <t>SD20UH84</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>T09</t>
+          <t>T21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4OGXTJND</t>
+          <t>YCJDNZGP</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>T21</t>
+          <t>T45</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DTIO0JAS</t>
+          <t>QOTZY6EH</t>
         </is>
       </c>
     </row>
@@ -663,12 +663,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>T31</t>
+          <t>T49</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>063J9JAH</t>
+          <t>48GYEGB8</t>
         </is>
       </c>
     </row>
@@ -680,29 +680,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>T49</t>
+          <t>T57</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4GN1YLX8</t>
+          <t>Y3I156XX</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>T57</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>VNAN4L3Q</t>
+          <t>C0UXYM4Z</t>
         </is>
       </c>
     </row>
@@ -714,12 +714,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>T04</t>
+          <t>T34</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>J5DEILFN</t>
+          <t>DVOO5KGK</t>
         </is>
       </c>
     </row>
@@ -731,12 +731,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T65</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NU1DW9M1</t>
+          <t>894EF094</t>
         </is>
       </c>
     </row>
@@ -748,29 +748,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>T65</t>
+          <t>S05</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>XM786KAU</t>
+          <t>RCTMGLHN</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S05</t>
+          <t>T12</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>B0UDW3R7</t>
+          <t>CY2HEZ7S</t>
         </is>
       </c>
     </row>
@@ -782,12 +782,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>T08</t>
+          <t>T36</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>W22B2F0I</t>
+          <t>76L05RKZ</t>
         </is>
       </c>
     </row>
@@ -799,12 +799,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>T36</t>
+          <t>T48</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EQCFWJ0V</t>
+          <t>D313HNJN</t>
         </is>
       </c>
     </row>
@@ -816,12 +816,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>T48</t>
+          <t>T59</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>8TONM5VP</t>
+          <t>EHUWD7IC</t>
         </is>
       </c>
     </row>
@@ -833,29 +833,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>T59</t>
+          <t>T64</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>WPLZ6N5T</t>
+          <t>VBUAT7L1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>T64</t>
+          <t>T02</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PFO4C3JY</t>
+          <t>NZ8YEKTF</t>
         </is>
       </c>
     </row>
@@ -867,12 +867,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>T02</t>
+          <t>T44</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6FXCQ5D9</t>
+          <t>NJR5JO2W</t>
         </is>
       </c>
     </row>
@@ -884,12 +884,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>T42</t>
+          <t>T52</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>9HOKMP0N</t>
+          <t>8J3MZAYL</t>
         </is>
       </c>
     </row>
@@ -906,24 +906,24 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>8GPQZ3L2</t>
+          <t>R227JA7I</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>T63</t>
+          <t>T07</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C9KNEIIG</t>
+          <t>32Z8YYN5</t>
         </is>
       </c>
     </row>
@@ -935,12 +935,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>T19</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>H1UWE3Y9</t>
+          <t>Y5M6BIEY</t>
         </is>
       </c>
     </row>
@@ -952,12 +952,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>T34</t>
+          <t>T41</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>K03TKJ8A</t>
+          <t>W1WQQI5M</t>
         </is>
       </c>
     </row>
@@ -969,12 +969,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>T45</t>
+          <t>T63</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>92XNXGMJ</t>
+          <t>ET32RAAY</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>V3KRID9F</t>
+          <t>5MRHBB8O</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>KBJ75PB0</t>
+          <t>NIM1AEUM</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>U041DVIG</t>
+          <t>GZDENQN2</t>
         </is>
       </c>
     </row>
@@ -1037,12 +1037,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>T28</t>
+          <t>T35</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0FDBFYOZ</t>
+          <t>SJ1PHXV3</t>
         </is>
       </c>
     </row>
@@ -1054,12 +1054,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>T35</t>
+          <t>T47</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ORD7FFOT</t>
+          <t>BJWDPV5K</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1XCL9CXJ</t>
+          <t>8DB2IVBW</t>
         </is>
       </c>
     </row>
@@ -1088,12 +1088,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>T23</t>
+          <t>T09</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5XVXG20B</t>
+          <t>IQ4B976I</t>
         </is>
       </c>
     </row>
@@ -1105,12 +1105,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>T29</t>
+          <t>T13</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LZVSN3KW</t>
+          <t>MLCXBDVX</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>T47</t>
+          <t>T29</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FS9RDHEG</t>
+          <t>ZIK6RC1C</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>XOAUM0HG</t>
+          <t>7QO6H8P0</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>YUC7IR3I</t>
+          <t>HOH3IOZC</t>
         </is>
       </c>
     </row>
@@ -1173,12 +1173,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>T12</t>
+          <t>T19</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>UF79QPKQ</t>
+          <t>Y765TTCE</t>
         </is>
       </c>
     </row>
@@ -1190,12 +1190,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>T17</t>
+          <t>T28</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5H54JOMF</t>
+          <t>IL6LXQH9</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1207,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T37</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>7B078T78</t>
+          <t>UIPJ2TXD</t>
         </is>
       </c>
     </row>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>T37</t>
+          <t>T53</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>N9LZG5VH</t>
+          <t>6IZOV4G2</t>
         </is>
       </c>
     </row>
@@ -1241,12 +1241,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>T53</t>
+          <t>T58</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0PQDHTFS</t>
+          <t>NRYBUTQI</t>
         </is>
       </c>
     </row>
@@ -1258,12 +1258,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>T13</t>
+          <t>T04</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>R8I10RNQ</t>
+          <t>LDP5IWV7</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>B8469V9R</t>
+          <t>EBV9876G</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0WZA2KVR</t>
+          <t>LX0DLSJA</t>
         </is>
       </c>
     </row>
@@ -1309,12 +1309,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>T44</t>
+          <t>T31</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>IVFRMGIW</t>
+          <t>WMV0WH59</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>8X1LPOLO</t>
+          <t>HRNR80SD</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>POK09MQD</t>
+          <t>K2HFVC3G</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6FXCQ5D9</t>
+          <t>NZ8YEKTF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A6EWOR61</t>
+          <t>MVFS9I54</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>J5DEILFN</t>
+          <t>LDP5IWV7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>K</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UMTWYRHJ</t>
+          <t>TA8LIQEJ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>72M2Y3E1</t>
+          <t>HX1AGR46</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1473,12 +1473,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RX9PCC3H</t>
+          <t>32Z8YYN5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1490,12 +1490,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>W22B2F0I</t>
+          <t>CMYH2NKE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1507,12 +1507,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4OGXTJND</t>
+          <t>IQ4B976I</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KBJ75PB0</t>
+          <t>NIM1AEUM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RZ4O7MLX</t>
+          <t>FEWONENR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1558,12 +1558,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>UF79QPKQ</t>
+          <t>CY2HEZ7S</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1575,12 +1575,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R8I10RNQ</t>
+          <t>MLCXBDVX</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>G7TL82B4</t>
+          <t>99LAWX1Z</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TGSAKAGC</t>
+          <t>A8TZ758R</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B8469V9R</t>
+          <t>EBV9876G</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1635,12 +1635,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5H54JOMF</t>
+          <t>D5FZFMLE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>U041DVIG</t>
+          <t>GZDENQN2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1669,12 +1669,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>H1UWE3Y9</t>
+          <t>Y765TTCE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>J</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1686,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7B078T78</t>
+          <t>Y5M6BIEY</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DTIO0JAS</t>
+          <t>YCJDNZGP</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0WZA2KVR</t>
+          <t>LX0DLSJA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1737,12 +1737,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5XVXG20B</t>
+          <t>PMX992L4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3BGE12ZI</t>
+          <t>68B66947</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4QKFHZLZ</t>
+          <t>LVS3X4ZC</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HVCZOEW4</t>
+          <t>K04FV6GU</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>66SRFUEM</t>
+          <t>HIEP5S9Q</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1806,12 +1806,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0FDBFYOZ</t>
+          <t>IL6LXQH9</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>J</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LZVSN3KW</t>
+          <t>ZIK6RC1C</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NU1DW9M1</t>
+          <t>C0UXYM4Z</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1857,12 +1857,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>063J9JAH</t>
+          <t>WMV0WH59</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>K</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BP077BEC</t>
+          <t>KKIQ0BCA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>OCH1RBHA</t>
+          <t>NLJ9STKT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1904,12 +1904,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>K03TKJ8A</t>
+          <t>DVOO5KGK</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ORD7FFOT</t>
+          <t>SJ1PHXV3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EQCFWJ0V</t>
+          <t>76L05RKZ</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>N9LZG5VH</t>
+          <t>UIPJ2TXD</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5YOGAUPM</t>
+          <t>SBUTJZZ8</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>663OGJ55</t>
+          <t>7Z3KD4R6</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PMMIN7OP</t>
+          <t>PBHYI2HB</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2011,12 +2011,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0OXJSUX2</t>
+          <t>W1WQQI5M</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -2028,12 +2028,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9HOKMP0N</t>
+          <t>EVX6P7OF</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CMAGOB2P</t>
+          <t>SD20UH84</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2062,12 +2062,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>IVFRMGIW</t>
+          <t>NJR5JO2W</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -2079,12 +2079,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>92XNXGMJ</t>
+          <t>QOTZY6EH</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>9OB53XNU</t>
+          <t>OWUQ2QND</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2109,12 +2109,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FS9RDHEG</t>
+          <t>BJWDPV5K</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>8TONM5VP</t>
+          <t>D313HNJN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4GN1YLX8</t>
+          <t>48GYEGB8</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>IGOVLAI1</t>
+          <t>H7DLXQVJ</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BEMTM817</t>
+          <t>C4CWV4A5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2186,12 +2186,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>JFQV58F5</t>
+          <t>8J3MZAYL</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0PQDHTFS</t>
+          <t>6IZOV4G2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>392XPSJM</t>
+          <t>WQQFVZGY</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>XOAUM0HG</t>
+          <t>7QO6H8P0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>YUC7IR3I</t>
+          <t>HOH3IOZC</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VNAN4L3Q</t>
+          <t>Y3I156XX</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2288,12 +2288,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>G9E7V5UI</t>
+          <t>NRYBUTQI</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>J</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>WPLZ6N5T</t>
+          <t>EHUWD7IC</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>8X1LPOLO</t>
+          <t>HRNR80SD</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>8GPQZ3L2</t>
+          <t>R227JA7I</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>D9MUL2W2</t>
+          <t>VDXWOFR6</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2369,12 +2369,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>C9KNEIIG</t>
+          <t>ET32RAAY</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PFO4C3JY</t>
+          <t>VBUAT7L1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>XM786KAU</t>
+          <t>894EF094</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Y3TU80U1</t>
+          <t>P95W0IPT</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1XCL9CXJ</t>
+          <t>8DB2IVBW</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>V3KRID9F</t>
+          <t>5MRHBB8O</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>VS0HBUJM</t>
+          <t>VJR0622D</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Z9B6LUDJ</t>
+          <t>NH8TS75T</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>B0UDW3R7</t>
+          <t>RCTMGLHN</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
